--- a/client/src/Excel/Data/Countries/iq.xlsx
+++ b/client/src/Excel/Data/Countries/iq.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF78D3-163A-4ED9-A93F-EA584715B887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF84B8-487C-414C-B876-A69AF98BD9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,9 +610,6 @@
     <t>كم باقي على بدء امتحانات الدور الثاني للجامعات في العراق</t>
   </si>
   <si>
-    <t>كم_باقي_على_بدء_امتحانات_الدور_الثاني_للكليات_في_العراق</t>
-  </si>
-  <si>
     <t>العد التنازلي لامتحانات الدور الثاني</t>
   </si>
   <si>
@@ -1949,6 +1946,9 @@
   </si>
   <si>
     <t>عيد النوروز في العراق 2025</t>
+  </si>
+  <si>
+    <t>كم_باقي_على_امتحان_الكليات_ثاني_في_العراق</t>
   </si>
 </sst>
 </file>
@@ -2346,16 +2346,16 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
@@ -2479,7 +2479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>80</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -2541,7 +2541,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>86</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H4" t="s">
         <v>26</v>
@@ -2603,7 +2603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
@@ -2665,7 +2665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>98</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -2727,7 +2727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H7" t="s">
         <v>37</v>
@@ -2789,7 +2789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
@@ -2851,7 +2851,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>113</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H9" t="s">
         <v>51</v>
@@ -2907,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>131</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="1">
         <v>45593</v>
@@ -2933,28 +2933,28 @@
         <v>132</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>133</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>134</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>135</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>136</v>
@@ -2969,13 +2969,13 @@
         <v>1</v>
       </c>
       <c r="S10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>138</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1">
         <v>45593</v>
@@ -2995,28 +2995,28 @@
         <v>139</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>141</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>142</v>
@@ -3031,13 +3031,13 @@
         <v>1</v>
       </c>
       <c r="S11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>144</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="1">
         <v>45593</v>
@@ -3057,28 +3057,28 @@
         <v>145</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>146</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>147</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>148</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>149</v>
@@ -3093,13 +3093,13 @@
         <v>1</v>
       </c>
       <c r="S12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>151</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="1">
         <v>45593</v>
@@ -3119,28 +3119,28 @@
         <v>152</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>153</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>154</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>155</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>156</v>
@@ -3155,13 +3155,13 @@
         <v>1</v>
       </c>
       <c r="S13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>158</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="1">
         <v>45593</v>
@@ -3178,37 +3178,37 @@
         <v>2025</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="N14" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="Q14" t="s">
         <v>124</v>
@@ -3217,21 +3217,21 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
+        <v>171</v>
+      </c>
+      <c r="T14" t="s">
         <v>172</v>
       </c>
-      <c r="T14" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D15" s="1">
         <v>45593</v>
@@ -3240,37 +3240,37 @@
         <v>2025</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="M15" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="Q15" t="s">
         <v>124</v>
@@ -3279,10 +3279,10 @@
         <v>1</v>
       </c>
       <c r="S15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/client/src/Excel/Data/Countries/iq.xlsx
+++ b/client/src/Excel/Data/Countries/iq.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF84B8-487C-414C-B876-A69AF98BD9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A94FD0-4D6F-4583-BD17-35FB99DFF499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="1950" windowWidth="29070" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2346,16 +2346,16 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D3" sqref="D3:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="3" max="3" width="17.796875" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>45</v>
       </c>
       <c r="D2" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E2">
         <v>2025</v>
@@ -2479,7 +2479,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>46</v>
       </c>
       <c r="D3" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E3">
         <v>2025</v>
@@ -2541,7 +2541,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>47</v>
       </c>
       <c r="D4" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E4">
         <v>2025</v>
@@ -2603,7 +2603,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>49</v>
       </c>
       <c r="D5" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E5">
         <v>2025</v>
@@ -2665,7 +2665,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>50</v>
       </c>
       <c r="D6" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E6">
         <v>2025</v>
@@ -2727,7 +2727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>48</v>
       </c>
       <c r="D7" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E7">
         <v>2025</v>
@@ -2789,7 +2789,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>73</v>
       </c>
       <c r="D8" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E8">
         <v>2025</v>
@@ -2851,7 +2851,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>53</v>
       </c>
       <c r="D9" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E9">
         <v>2025</v>
@@ -2913,7 +2913,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>173</v>
       </c>
       <c r="D10" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E10">
         <v>2025</v>
@@ -2975,7 +2975,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>174</v>
       </c>
       <c r="D11" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E11" s="2">
         <v>2025</v>
@@ -3037,7 +3037,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>175</v>
       </c>
       <c r="D12" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E12" s="2">
         <v>2025</v>
@@ -3099,7 +3099,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>176</v>
       </c>
       <c r="D13" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E13" s="2">
         <v>2025</v>
@@ -3161,7 +3161,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>177</v>
       </c>
       <c r="D14" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E14" s="2">
         <v>2025</v>
@@ -3223,7 +3223,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.6">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>164</v>
       </c>
       <c r="D15" s="1">
-        <v>45593</v>
+        <v>45597</v>
       </c>
       <c r="E15" s="2">
         <v>2025</v>
